--- a/biology/Microbiologie/Vaucheriaceae/Vaucheriaceae.xlsx
+++ b/biology/Microbiologie/Vaucheriaceae/Vaucheriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vaucheriaceae sont une famille d'algues l'embranchement des Ochrophyta, de la classe des Xanthophyceae ou Tribophyceae (algues jaunes) de l'ordre des Vaucheriales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vaucheriaceae sont une famille d'algues l'embranchement des Ochrophyta, de la classe des Xanthophyceae ou Tribophyceae (algues jaunes) de l'ordre des Vaucheriales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Vaucheria, qui fut donné en hommage au pasteur et botaniste suisse Jean Pierre Étienne Vaucher (1763-1841).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 janvier 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 janvier 2022) :
 Confervites, Sternberg
 Ectosperma, Vaucher
 Pseudodichotomosiphon, Yamada
@@ -552,12 +568,12 @@
 Vaucheria, A.P.de Candolle
 Vaucheriella, Gaillon
 Vaucheriopsis, Heering
-Selon BioLib                    (9 janvier 2022)[2] :
+Selon BioLib                    (9 janvier 2022) :
 Asterosiphon P. Dangeard, 1940
 Ectosperma Vaucher, 1803
 Pseudodichotomosiphon Yamada, 1934
 Vaucheria A.P. de Candolle, 1801
-Selon ITIS      (9 janvier 2022)[3], NCBI  (9 janvier 2022)[4] et Tropicos                                           (9 janvier 2022)[5] :
+Selon ITIS      (9 janvier 2022), NCBI  (9 janvier 2022) et Tropicos                                           (9 janvier 2022) :
 Vaucheria De Candolle, 1801</t>
         </is>
       </c>
